--- a/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Gnas-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H2">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I2">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J2">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0694673901208549</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N2">
-        <v>0.0694673901208549</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O2">
-        <v>0.02497769656176403</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P2">
-        <v>0.02497769656176403</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q2">
-        <v>8.04700635616798</v>
+        <v>22.98486440840778</v>
       </c>
       <c r="R2">
-        <v>8.04700635616798</v>
+        <v>206.86377967567</v>
       </c>
       <c r="S2">
-        <v>0.004813845415486649</v>
+        <v>0.01006558982111909</v>
       </c>
       <c r="T2">
-        <v>0.004813845415486649</v>
+        <v>0.01318233659152222</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H3">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I3">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J3">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.1495698006026</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N3">
-        <v>1.1495698006026</v>
+        <v>3.630605</v>
       </c>
       <c r="O3">
-        <v>0.4133393467937292</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P3">
-        <v>0.4133393467937292</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q3">
-        <v>133.1645751512226</v>
+        <v>150.0516307110456</v>
       </c>
       <c r="R3">
-        <v>133.1645751512226</v>
+        <v>1350.46467639941</v>
       </c>
       <c r="S3">
-        <v>0.07966113747450838</v>
+        <v>0.06571098875723352</v>
       </c>
       <c r="T3">
-        <v>0.07966113747450838</v>
+        <v>0.08605798437585037</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H4">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I4">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J4">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.226787560066387</v>
+        <v>0.167083</v>
       </c>
       <c r="N4">
-        <v>0.226787560066387</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O4">
-        <v>0.08154374087562649</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P4">
-        <v>0.08154374087562649</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q4">
-        <v>26.27075717367666</v>
+        <v>20.71644528729533</v>
       </c>
       <c r="R4">
-        <v>26.27075717367666</v>
+        <v>186.448007585658</v>
       </c>
       <c r="S4">
-        <v>0.01571557898483987</v>
+        <v>0.009072197995533677</v>
       </c>
       <c r="T4">
-        <v>0.01571557898483987</v>
+        <v>0.01188134721634841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>115.838616394949</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H5">
-        <v>115.838616394949</v>
+        <v>371.966842</v>
       </c>
       <c r="I5">
-        <v>0.192725754497943</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J5">
-        <v>0.192725754497943</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.33535204624099</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N5">
-        <v>1.33535204624099</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O5">
-        <v>0.4801392157688803</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P5">
-        <v>0.4801392157688803</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q5">
-        <v>154.6853334367202</v>
+        <v>30.32765518808423</v>
       </c>
       <c r="R5">
-        <v>154.6853334367202</v>
+        <v>272.9488966927581</v>
       </c>
       <c r="S5">
-        <v>0.09253519262310812</v>
+        <v>0.01328116328795592</v>
       </c>
       <c r="T5">
-        <v>0.09253519262310812</v>
+        <v>0.01739359221865629</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>197.799631374202</v>
+        <v>123.9889473333333</v>
       </c>
       <c r="H6">
-        <v>197.799631374202</v>
+        <v>371.966842</v>
       </c>
       <c r="I6">
-        <v>0.3290878670894614</v>
+        <v>0.1954468191201633</v>
       </c>
       <c r="J6">
-        <v>0.3290878670894614</v>
+        <v>0.2134822208566356</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0694673901208549</v>
+        <v>1.7922885</v>
       </c>
       <c r="N6">
-        <v>0.0694673901208549</v>
+        <v>3.584577</v>
       </c>
       <c r="O6">
-        <v>0.02497769656176403</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P6">
-        <v>0.02497769656176403</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q6">
-        <v>13.74062415843298</v>
+        <v>222.223964432639</v>
       </c>
       <c r="R6">
-        <v>13.74062415843298</v>
+        <v>1333.343786595834</v>
       </c>
       <c r="S6">
-        <v>0.008219856886318697</v>
+        <v>0.09731687925832107</v>
       </c>
       <c r="T6">
-        <v>0.008219856886318697</v>
+        <v>0.08496696045425833</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H7">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I7">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J7">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1495698006026</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N7">
-        <v>1.1495698006026</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O7">
-        <v>0.4133393467937292</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P7">
-        <v>0.4133393467937292</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q7">
-        <v>227.3844827981092</v>
+        <v>39.15711807458888</v>
       </c>
       <c r="R7">
-        <v>227.3844827981092</v>
+        <v>352.4140626712999</v>
       </c>
       <c r="S7">
-        <v>0.1360249640204995</v>
+        <v>0.0171477839552434</v>
       </c>
       <c r="T7">
-        <v>0.1360249640204995</v>
+        <v>0.02245748772937688</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H8">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I8">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J8">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.226787560066387</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N8">
-        <v>0.226787560066387</v>
+        <v>3.630605</v>
       </c>
       <c r="O8">
-        <v>0.08154374087562649</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P8">
-        <v>0.08154374087562649</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q8">
-        <v>44.85849578138604</v>
+        <v>255.6286309388777</v>
       </c>
       <c r="R8">
-        <v>44.85849578138604</v>
+        <v>2300.6576784499</v>
       </c>
       <c r="S8">
-        <v>0.02683505575925565</v>
+        <v>0.1119455351071709</v>
       </c>
       <c r="T8">
-        <v>0.02683505575925565</v>
+        <v>0.1466087680827755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>197.799631374202</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H9">
-        <v>197.799631374202</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I9">
-        <v>0.3290878670894614</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J9">
-        <v>0.3290878670894614</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.33535204624099</v>
+        <v>0.167083</v>
       </c>
       <c r="N9">
-        <v>1.33535204624099</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O9">
-        <v>0.4801392157688803</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P9">
-        <v>0.4801392157688803</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q9">
-        <v>264.1321425012542</v>
+        <v>35.29262908784666</v>
       </c>
       <c r="R9">
-        <v>264.1321425012542</v>
+        <v>317.6336617906199</v>
       </c>
       <c r="S9">
-        <v>0.1580079904233875</v>
+        <v>0.01545543718662159</v>
       </c>
       <c r="T9">
-        <v>0.1580079904233875</v>
+        <v>0.0202411163959514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>68.0590918178804</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H10">
-        <v>68.0590918178804</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I10">
-        <v>0.113232877163558</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J10">
-        <v>0.113232877163558</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0694673901208549</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N10">
-        <v>0.0694673901208549</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O10">
-        <v>0.02497769656176403</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P10">
-        <v>0.02497769656176403</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q10">
-        <v>4.727887482583782</v>
+        <v>51.66632937329111</v>
       </c>
       <c r="R10">
-        <v>4.727887482583782</v>
+        <v>464.99696435962</v>
       </c>
       <c r="S10">
-        <v>0.002828296446606852</v>
+        <v>0.0226258493325787</v>
       </c>
       <c r="T10">
-        <v>0.002828296446606852</v>
+        <v>0.02963180169981934</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>68.0590918178804</v>
+        <v>211.2281266666666</v>
       </c>
       <c r="H11">
-        <v>68.0590918178804</v>
+        <v>633.6843799999999</v>
       </c>
       <c r="I11">
-        <v>0.113232877163558</v>
+        <v>0.3329640774731549</v>
       </c>
       <c r="J11">
-        <v>0.113232877163558</v>
+        <v>0.3636892687455195</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1495698006026</v>
+        <v>1.7922885</v>
       </c>
       <c r="N11">
-        <v>1.1495698006026</v>
+        <v>3.584577</v>
       </c>
       <c r="O11">
-        <v>0.4133393467937292</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P11">
-        <v>0.4133393467937292</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q11">
-        <v>78.23867661027482</v>
+        <v>378.5817423012099</v>
       </c>
       <c r="R11">
-        <v>78.23867661027482</v>
+        <v>2271.49045380726</v>
       </c>
       <c r="S11">
-        <v>0.04680360348235965</v>
+        <v>0.1657894718915404</v>
       </c>
       <c r="T11">
-        <v>0.04680360348235965</v>
+        <v>0.1447500948375963</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H12">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I12">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J12">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.226787560066387</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N12">
-        <v>0.226787560066387</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O12">
-        <v>0.08154374087562649</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P12">
-        <v>0.08154374087562649</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q12">
-        <v>15.4349553737113</v>
+        <v>14.39178011034055</v>
       </c>
       <c r="R12">
-        <v>15.4349553737113</v>
+        <v>129.526020993065</v>
       </c>
       <c r="S12">
-        <v>0.009233432394026821</v>
+        <v>0.006302484661751501</v>
       </c>
       <c r="T12">
-        <v>0.009233432394026821</v>
+        <v>0.008254009516640268</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.0590918178804</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H13">
-        <v>68.0590918178804</v>
+        <v>232.903919</v>
       </c>
       <c r="I13">
-        <v>0.113232877163558</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J13">
-        <v>0.113232877163558</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.33535204624099</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N13">
-        <v>1.33535204624099</v>
+        <v>3.630605</v>
       </c>
       <c r="O13">
-        <v>0.4801392157688803</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P13">
-        <v>0.4801392157688803</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q13">
-        <v>90.88284752431001</v>
+        <v>93.9535703156661</v>
       </c>
       <c r="R13">
-        <v>90.88284752431001</v>
+        <v>845.582132840995</v>
       </c>
       <c r="S13">
-        <v>0.05436754484056471</v>
+        <v>0.04114438459255092</v>
       </c>
       <c r="T13">
-        <v>0.05436754484056471</v>
+        <v>0.05388448527994416</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.5518471348649</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H14">
-        <v>60.5518471348649</v>
+        <v>232.903919</v>
       </c>
       <c r="I14">
-        <v>0.100742747008672</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J14">
-        <v>0.100742747008672</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.0694673901208549</v>
+        <v>0.167083</v>
       </c>
       <c r="N14">
-        <v>0.0694673901208549</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O14">
-        <v>0.02497769656176403</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P14">
-        <v>0.02497769656176403</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q14">
-        <v>4.20637878745603</v>
+        <v>12.97142849942566</v>
       </c>
       <c r="R14">
-        <v>4.20637878745603</v>
+        <v>116.742856494831</v>
       </c>
       <c r="S14">
-        <v>0.002516321765581169</v>
+        <v>0.005680480700222568</v>
       </c>
       <c r="T14">
-        <v>0.002516321765581169</v>
+        <v>0.007439405928787827</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.5518471348649</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H15">
-        <v>60.5518471348649</v>
+        <v>232.903919</v>
       </c>
       <c r="I15">
-        <v>0.100742747008672</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J15">
-        <v>0.100742747008672</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1495698006026</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N15">
-        <v>1.1495698006026</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O15">
-        <v>0.4133393467937292</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P15">
-        <v>0.4133393467937292</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q15">
-        <v>69.60857483694576</v>
+        <v>18.98940698425345</v>
       </c>
       <c r="R15">
-        <v>69.60857483694576</v>
+        <v>170.904662858281</v>
       </c>
       <c r="S15">
-        <v>0.04164094124277038</v>
+        <v>0.008315889023903532</v>
       </c>
       <c r="T15">
-        <v>0.04164094124277038</v>
+        <v>0.0108908519141955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.5518471348649</v>
+        <v>77.63463966666666</v>
       </c>
       <c r="H16">
-        <v>60.5518471348649</v>
+        <v>232.903919</v>
       </c>
       <c r="I16">
-        <v>0.100742747008672</v>
+        <v>0.1223773868778609</v>
       </c>
       <c r="J16">
-        <v>0.100742747008672</v>
+        <v>0.1336701024397599</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.226787560066387</v>
+        <v>1.7922885</v>
       </c>
       <c r="N16">
-        <v>0.226787560066387</v>
+        <v>3.584577</v>
       </c>
       <c r="O16">
-        <v>0.08154374087562649</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P16">
-        <v>0.08154374087562649</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q16">
-        <v>13.73240566922886</v>
+        <v>139.1436718762105</v>
       </c>
       <c r="R16">
-        <v>13.73240566922886</v>
+        <v>834.8620312572629</v>
       </c>
       <c r="S16">
-        <v>0.008214940457173942</v>
+        <v>0.06093414789943236</v>
       </c>
       <c r="T16">
-        <v>0.008214940457173942</v>
+        <v>0.05320134980019209</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>60.5518471348649</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H17">
-        <v>60.5518471348649</v>
+        <v>182.257702</v>
       </c>
       <c r="I17">
-        <v>0.100742747008672</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J17">
-        <v>0.100742747008672</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.33535204624099</v>
+        <v>0.1853783333333333</v>
       </c>
       <c r="N17">
-        <v>1.33535204624099</v>
+        <v>0.5561349999999999</v>
       </c>
       <c r="O17">
-        <v>0.4801392157688803</v>
+        <v>0.05150040234182901</v>
       </c>
       <c r="P17">
-        <v>0.4801392157688803</v>
+        <v>0.06174910743679608</v>
       </c>
       <c r="Q17">
-        <v>80.85803297521348</v>
+        <v>11.26220967797444</v>
       </c>
       <c r="R17">
-        <v>80.85803297521348</v>
+        <v>101.35988710177</v>
       </c>
       <c r="S17">
-        <v>0.04837054354314647</v>
+        <v>0.004931975280935809</v>
       </c>
       <c r="T17">
-        <v>0.04837054354314647</v>
+        <v>0.006459130500028151</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>158.804972836137</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H18">
-        <v>158.804972836137</v>
+        <v>182.257702</v>
       </c>
       <c r="I18">
-        <v>0.2642107542403656</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J18">
-        <v>0.2642107542403656</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0694673901208549</v>
+        <v>1.210201666666667</v>
       </c>
       <c r="N18">
-        <v>0.0694673901208549</v>
+        <v>3.630605</v>
       </c>
       <c r="O18">
-        <v>0.02497769656176403</v>
+        <v>0.3362090468038446</v>
       </c>
       <c r="P18">
-        <v>0.02497769656176403</v>
+        <v>0.4031154633417589</v>
       </c>
       <c r="Q18">
-        <v>11.03176700113969</v>
+        <v>73.52285824107888</v>
       </c>
       <c r="R18">
-        <v>11.03176700113969</v>
+        <v>661.70572416971</v>
       </c>
       <c r="S18">
-        <v>0.00659937604777066</v>
+        <v>0.0321973156065379</v>
       </c>
       <c r="T18">
-        <v>0.00659937604777066</v>
+        <v>0.04216701248627529</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>158.804972836137</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H19">
-        <v>158.804972836137</v>
+        <v>182.257702</v>
       </c>
       <c r="I19">
-        <v>0.2642107542403656</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J19">
-        <v>0.2642107542403656</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>1.1495698006026</v>
+        <v>0.167083</v>
       </c>
       <c r="N19">
-        <v>1.1495698006026</v>
+        <v>0.5012489999999999</v>
       </c>
       <c r="O19">
-        <v>0.4133393467937292</v>
+        <v>0.04641773161811331</v>
       </c>
       <c r="P19">
-        <v>0.4133393467937292</v>
+        <v>0.05565497289972147</v>
       </c>
       <c r="Q19">
-        <v>182.5574009579393</v>
+        <v>10.15072120775533</v>
       </c>
       <c r="R19">
-        <v>182.5574009579393</v>
+        <v>91.35649086979798</v>
       </c>
       <c r="S19">
-        <v>0.1092087005735912</v>
+        <v>0.004445229445357321</v>
       </c>
       <c r="T19">
-        <v>0.1092087005735912</v>
+        <v>0.005821666868671476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>158.804972836137</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H20">
-        <v>158.804972836137</v>
+        <v>182.257702</v>
       </c>
       <c r="I20">
-        <v>0.2642107542403656</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J20">
-        <v>0.2642107542403656</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.226787560066387</v>
+        <v>0.2445996666666667</v>
       </c>
       <c r="N20">
-        <v>0.226787560066387</v>
+        <v>0.7337990000000001</v>
       </c>
       <c r="O20">
-        <v>0.08154374087562649</v>
+        <v>0.06795282393309501</v>
       </c>
       <c r="P20">
-        <v>0.08154374087562649</v>
+        <v>0.08147560086672037</v>
       </c>
       <c r="Q20">
-        <v>36.01499231591638</v>
+        <v>14.86005771887756</v>
       </c>
       <c r="R20">
-        <v>36.01499231591638</v>
+        <v>133.740519469898</v>
       </c>
       <c r="S20">
-        <v>0.0215447332803302</v>
+        <v>0.006507553973721159</v>
       </c>
       <c r="T20">
-        <v>0.0215447332803302</v>
+        <v>0.008522577255145169</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>158.804972836137</v>
+        <v>60.75256733333333</v>
       </c>
       <c r="H21">
-        <v>158.804972836137</v>
+        <v>182.257702</v>
       </c>
       <c r="I21">
-        <v>0.2642107542403656</v>
+        <v>0.09576576214298858</v>
       </c>
       <c r="J21">
-        <v>0.2642107542403656</v>
+        <v>0.1046028156219013</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.33535204624099</v>
+        <v>1.7922885</v>
       </c>
       <c r="N21">
-        <v>1.33535204624099</v>
+        <v>3.584577</v>
       </c>
       <c r="O21">
-        <v>0.4801392157688803</v>
+        <v>0.4979199953031181</v>
       </c>
       <c r="P21">
-        <v>0.4801392157688803</v>
+        <v>0.3980048554550032</v>
       </c>
       <c r="Q21">
-        <v>212.0605454299804</v>
+        <v>108.886127777009</v>
       </c>
       <c r="R21">
-        <v>212.0605454299804</v>
+        <v>653.316766662054</v>
       </c>
       <c r="S21">
-        <v>0.1268579443386735</v>
+        <v>0.0476836878364364</v>
       </c>
       <c r="T21">
-        <v>0.1268579443386735</v>
+        <v>0.04163242851178116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>160.7828525</v>
+      </c>
+      <c r="H22">
+        <v>321.565705</v>
+      </c>
+      <c r="I22">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J22">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1853783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.5561349999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.05150040234182901</v>
+      </c>
+      <c r="P22">
+        <v>0.06174910743679608</v>
+      </c>
+      <c r="Q22">
+        <v>29.80565722502916</v>
+      </c>
+      <c r="R22">
+        <v>178.833943350175</v>
+      </c>
+      <c r="S22">
+        <v>0.01305256862277921</v>
+      </c>
+      <c r="T22">
+        <v>0.01139614309922856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>160.7828525</v>
+      </c>
+      <c r="H23">
+        <v>321.565705</v>
+      </c>
+      <c r="I23">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J23">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.210201666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.630605</v>
+      </c>
+      <c r="O23">
+        <v>0.3362090468038446</v>
+      </c>
+      <c r="P23">
+        <v>0.4031154633417589</v>
+      </c>
+      <c r="Q23">
+        <v>194.5796760669208</v>
+      </c>
+      <c r="R23">
+        <v>1167.478056401525</v>
+      </c>
+      <c r="S23">
+        <v>0.08521082274035141</v>
+      </c>
+      <c r="T23">
+        <v>0.07439721311691354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>160.7828525</v>
+      </c>
+      <c r="H24">
+        <v>321.565705</v>
+      </c>
+      <c r="I24">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J24">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.167083</v>
+      </c>
+      <c r="N24">
+        <v>0.5012489999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.04641773161811331</v>
+      </c>
+      <c r="P24">
+        <v>0.05565497289972147</v>
+      </c>
+      <c r="Q24">
+        <v>26.8640813442575</v>
+      </c>
+      <c r="R24">
+        <v>161.184488065545</v>
+      </c>
+      <c r="S24">
+        <v>0.01176438629037816</v>
+      </c>
+      <c r="T24">
+        <v>0.01027143648996236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>160.7828525</v>
+      </c>
+      <c r="H25">
+        <v>321.565705</v>
+      </c>
+      <c r="I25">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J25">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2445996666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7337990000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.06795282393309501</v>
+      </c>
+      <c r="P25">
+        <v>0.08147560086672037</v>
+      </c>
+      <c r="Q25">
+        <v>39.32743212721584</v>
+      </c>
+      <c r="R25">
+        <v>235.964592763295</v>
+      </c>
+      <c r="S25">
+        <v>0.0172223683149357</v>
+      </c>
+      <c r="T25">
+        <v>0.01503677777890408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>160.7828525</v>
+      </c>
+      <c r="H26">
+        <v>321.565705</v>
+      </c>
+      <c r="I26">
+        <v>0.2534459543858325</v>
+      </c>
+      <c r="J26">
+        <v>0.1845555923361839</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7922885</v>
+      </c>
+      <c r="N26">
+        <v>3.584577</v>
+      </c>
+      <c r="O26">
+        <v>0.4979199953031181</v>
+      </c>
+      <c r="P26">
+        <v>0.3980048554550032</v>
+      </c>
+      <c r="Q26">
+        <v>288.1692575329462</v>
+      </c>
+      <c r="R26">
+        <v>1152.677030131785</v>
+      </c>
+      <c r="S26">
+        <v>0.126195808417388</v>
+      </c>
+      <c r="T26">
+        <v>0.07345402185117537</v>
       </c>
     </row>
   </sheetData>
